--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1115718.641708927</v>
+        <v>-1118598.969868931</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10036405.55371385</v>
+        <v>10036405.55371384</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>205.8511490568316</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>56.07426992839164</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>112.3637218211828</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.7210176553111</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.28788303971709</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>159.5664594848155</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>286.3058226761214</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>184.2720459863179</v>
       </c>
       <c r="W7" t="n">
-        <v>205.6055555187481</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>144.5877979244649</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>295.5851038551712</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>99.44420492154111</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>41.60617040425771</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.9690682914396</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>141.0312899597376</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33.26025621763416</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>69.94319885314873</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>38.03682829123536</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081998</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561464</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>105.3798824585327</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>142.8837914811892</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081998</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561464</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>64.44601915223838</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11.98563940341934</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>137.7610225486949</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>65.78783178799286</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3235,7 +3235,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,7 +3244,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
         <v>262.2383508445512</v>
@@ -3253,7 +3253,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.2778500677821</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="C2" t="n">
-        <v>622.3153331273704</v>
+        <v>375.3721443234094</v>
       </c>
       <c r="D2" t="n">
-        <v>264.0496345206199</v>
+        <v>167.4416907306501</v>
       </c>
       <c r="E2" t="n">
-        <v>264.0496345206199</v>
+        <v>167.4416907306501</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>167.4416907306501</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>167.4416907306501</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>167.4416907306501</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677821</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.7388232746241</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.7388232746241</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259437</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2535.970849114368</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="V5" t="n">
-        <v>1935.554837945426</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W5" t="n">
-        <v>1582.786182675312</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.786182675312</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.6468506995</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>541.9956044222747</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1689.203741822952</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.938043216202</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>945.1497906179575</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>304.5083130726407</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.391673660305</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.391673660305</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F11" t="n">
         <v>794.2588208963565</v>
@@ -5039,10 +5039,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L11" t="n">
         <v>1513.293909294976</v>
@@ -5072,19 +5072,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149658</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="L12" t="n">
-        <v>915.089423558717</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M12" t="n">
-        <v>1507.107777810845</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.203741210181</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5221,25 +5221,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2387.386064583919</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2204.215874322849</v>
       </c>
       <c r="T13" t="n">
-        <v>2178.382964033126</v>
+        <v>1984.537092037231</v>
       </c>
       <c r="U13" t="n">
-        <v>2178.382964033126</v>
+        <v>1984.537092037231</v>
       </c>
       <c r="V13" t="n">
-        <v>1923.698475827239</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="W13" t="n">
-        <v>1634.281305790278</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X13" t="n">
-        <v>1406.291754892261</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y13" t="n">
         <v>1281.070473789797</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160703</v>
@@ -5279,25 +5279,25 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5309,19 +5309,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3570907149658</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L15" t="n">
-        <v>915.089423558717</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M15" t="n">
-        <v>915.089423558717</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N15" t="n">
-        <v>1537.185386958053</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>2084.061861958247</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2503.645380384323</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>965.8040325357866</v>
+        <v>785.3178666362255</v>
       </c>
       <c r="C16" t="n">
-        <v>796.8678496078797</v>
+        <v>616.3816837083186</v>
       </c>
       <c r="D16" t="n">
-        <v>646.751210195544</v>
+        <v>466.2650442959829</v>
       </c>
       <c r="E16" t="n">
-        <v>498.8381166131509</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F16" t="n">
-        <v>351.9481691152405</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G16" t="n">
         <v>318.3519507135898</v>
@@ -5446,40 +5446,40 @@
         <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931022</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="S16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="T16" t="n">
-        <v>2429.412499335695</v>
+        <v>2209.733717050073</v>
       </c>
       <c r="U16" t="n">
-        <v>2140.336285650421</v>
+        <v>1920.6575033648</v>
       </c>
       <c r="V16" t="n">
-        <v>1885.651797444534</v>
+        <v>1665.973015158913</v>
       </c>
       <c r="W16" t="n">
-        <v>1596.234627407574</v>
+        <v>1376.555845121952</v>
       </c>
       <c r="X16" t="n">
-        <v>1368.245076509556</v>
+        <v>1148.566294223935</v>
       </c>
       <c r="Y16" t="n">
-        <v>1147.452497366026</v>
+        <v>927.7737150804049</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5501,10 +5501,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5513,19 +5513,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
         <v>3654.445485610258</v>
@@ -5592,16 +5592,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M18" t="n">
-        <v>1356.791087284249</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N18" t="n">
         <v>1356.791087284249</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.7042115721531</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7680286442462</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6513892319105</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7382956495174</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160703</v>
+        <v>247.1289295632816</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>247.1289295632816</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5698,25 +5698,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.991460657679</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.312678372061</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.236464686788</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.551976480901</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.13480644394</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.145255545923</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3526764023928</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="20">
@@ -5738,46 +5738,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015376</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892175</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.29390929499</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234024</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151128</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610263</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297609</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H21" t="n">
         <v>93.84834815160703</v>
@@ -5832,34 +5832,34 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>274.0404001883707</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L21" t="n">
-        <v>764.7727330321219</v>
+        <v>584.5806809953565</v>
       </c>
       <c r="M21" t="n">
-        <v>1356.791087284249</v>
+        <v>965.2563978701659</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.3523612695</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.228836269692</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>707.7042115721531</v>
       </c>
       <c r="C22" t="n">
-        <v>495.0957149476001</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D22" t="n">
         <v>388.6513892319105</v>
@@ -5908,52 +5908,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117233</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948564</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782253</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074617</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526788999</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1882.236464686788</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1627.551976480901</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1338.13480644394</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>1110.145255545923</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>889.3526764023928</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E23" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963567</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.344223650718</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074383978</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E24" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F24" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H24" t="n">
         <v>93.84834815160703</v>
@@ -6066,37 +6066,37 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034521</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034521</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472015</v>
       </c>
       <c r="M24" t="n">
-        <v>1356.791087284249</v>
+        <v>1324.247016999327</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>1946.342980398661</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284444</v>
+        <v>2493.219455398853</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6108,7 +6108,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890913</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>562.9550599890913</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>562.9550599890913</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196932</v>
+        <v>415.0419664066982</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>415.0419664066982</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160703</v>
+        <v>247.827771581277</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>105.9550546197074</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117233</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948564</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782253</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074617</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526788999</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103726</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897839</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860879</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628612</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>744.603524819331</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362678</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,19 +6227,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.510728238854</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.655893893758</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7166,10 +7166,10 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,22 +7181,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,13 +7351,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>51.31264782911074</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>51.31264782911171</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>350.8017758133198</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.56759442367846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>272.6890368116048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>117.0219192193338</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.57458118682585</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>94.61558506065522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>38.80069022219968</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>132.2817966595327</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>70.51079093880519</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>43.23559055967969</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108389</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>143.3016600672312</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>80.97502887069287</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>69.8189373409899</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108389</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856555</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>43.26526345294974</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.5874149221288292</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.288480726625471e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1097978.548309758</v>
+        <v>1097978.548309759</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152848.5021977672</v>
+        <v>152848.5021977673</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
         <v>181503.6698516759</v>
@@ -26329,10 +26329,10 @@
         <v>181503.6698516759</v>
       </c>
       <c r="H2" t="n">
-        <v>181503.6698516759</v>
+        <v>181503.6698516757</v>
       </c>
       <c r="I2" t="n">
-        <v>181503.6698516759</v>
+        <v>181503.6698516757</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302513</v>
@@ -26341,7 +26341,7 @@
         <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.293060786677718e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792224</v>
+        <v>183669.0093792251</v>
       </c>
       <c r="K3" t="n">
         <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
         <v>124307.2113901372</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.1964869545</v>
+        <v>120178.1964869547</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
@@ -26427,19 +26427,19 @@
         <v>5781.971894855114</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855115</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855169</v>
+        <v>5781.971894855118</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855391</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855127</v>
+        <v>5781.971894855405</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670473</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670443</v>
@@ -26451,13 +26451,13 @@
         <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="P4" t="n">
         <v>13058.45186476391</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13058.45186476389</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-640156.6515671412</v>
+        <v>-640510.9393007156</v>
       </c>
       <c r="C6" t="n">
-        <v>-99189.18577167726</v>
+        <v>-99189.18577167741</v>
       </c>
       <c r="D6" t="n">
-        <v>-99189.18577167724</v>
+        <v>-99189.18577167732</v>
       </c>
       <c r="E6" t="n">
-        <v>-861718.0069549299</v>
+        <v>-861753.9039367943</v>
       </c>
       <c r="F6" t="n">
-        <v>74791.65849958226</v>
+        <v>74755.76151771798</v>
       </c>
       <c r="G6" t="n">
-        <v>74791.65849958223</v>
+        <v>74755.7615177179</v>
       </c>
       <c r="H6" t="n">
-        <v>74791.65849958226</v>
+        <v>74755.76151772054</v>
       </c>
       <c r="I6" t="n">
-        <v>74791.65849958223</v>
+        <v>74755.76151771752</v>
       </c>
       <c r="J6" t="n">
-        <v>-108251.1468745486</v>
+        <v>-108285.8847999871</v>
       </c>
       <c r="K6" t="n">
-        <v>75417.86250467367</v>
+        <v>75383.12457923798</v>
       </c>
       <c r="L6" t="n">
-        <v>49084.11250715257</v>
+        <v>49084.11250715249</v>
       </c>
       <c r="M6" t="n">
         <v>-55795.38088935289</v>
       </c>
       <c r="N6" t="n">
-        <v>68511.83050078437</v>
+        <v>68511.83050078436</v>
       </c>
       <c r="O6" t="n">
         <v>68511.83050078436</v>
       </c>
       <c r="P6" t="n">
-        <v>68511.83050078436</v>
+        <v>68511.83050078433</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26753,10 +26753,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.368975582112339e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625291786</v>
       </c>
       <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591163</v>
+        <v>673.8912089591158</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>148.8318925638513</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>113.5489018444488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.1109625266262</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>14.849253324156</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>41.44643579401355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>67.86559733751011</v>
       </c>
       <c r="W7" t="n">
-        <v>80.91744281784293</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>262.2882478172465</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>90.65283480088243</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>45.97684310139013</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-9.219164106041749e-13</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>187.1630768341355</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504301</v>
@@ -31853,13 +31853,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927637</v>
@@ -32093,10 +32093,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.6554855117215</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,19 +32312,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>187.1630768341355</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1579551075602</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426204</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.45946150237741</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122266</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874051</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083041</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364238</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529328</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229579</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086925</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687501</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148589</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987153</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854254</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901927</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540897</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>319.8536127488677</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>526.6549600581894</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927616</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426185</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982437</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273328</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900878</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640608</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265011</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416864</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851316</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.45946150237741</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122266</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874051</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083041</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364238</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529328</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229579</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086925</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687501</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148589</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987153</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854254</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901927</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540897</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1579551075602</v>
+        <v>740.1323715504279</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927616</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426185</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>195.1793561990913</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273328</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900878</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640608</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265011</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416864</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851316</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>233.9389431948339</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437242</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742437</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
         <v>297.223041434342</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284117</v>
@@ -35501,13 +35501,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>428.8975893793793</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
         <v>625.777556066439</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>210.3443242916669</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094305</v>
@@ -35741,10 +35741,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.67371142570003</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209128</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
@@ -35896,7 +35896,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P17" t="n">
         <v>553.8443926134828</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>297.0239211855419</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
         <v>552.400479798176</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898296</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380604</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020553</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263671</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870058</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404094</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>182.0121737745087</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>384.5209261361711</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>628.3797610094283</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.400479798174</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839135</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066001</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642049</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883417</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606349</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044793</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380604</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020553</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263671</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806161175</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404094</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136759</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M24" t="n">
-        <v>297.0239211855419</v>
+        <v>597.9983376284097</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>628.3797610094283</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>552.400479798174</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>61.20494878476102</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066001</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642049</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883417</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606349</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044793</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>91.80490927281556</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992797</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
